--- a/VerveStacks_DEU/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC150CB7-ECDE-40E8-9EE1-7034734993B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB0FE62-9445-4ECD-BA1D-981C0960F755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2620,7 +2620,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF3E20B7-6ADE-4C04-5DCA-462B9F8CE297}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683CEF1F-0582-E7DC-4218-35870890971B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,7 +4025,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D42DBB8-86A3-E003-9FED-F900FEC30528}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6956A1F5-C132-3B04-9645-DA57117691C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5430,7 +5430,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2BE008D-877D-2E0D-79C9-0566EC8043F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB95E7D-0D0C-1298-C791-69AB4AF3EE30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_DEU/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB0FE62-9445-4ECD-BA1D-981C0960F755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784C07B7-75CB-4717-96D5-10D3AA1A619E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2620,7 +2620,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683CEF1F-0582-E7DC-4218-35870890971B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA94D1E-47F8-2AAF-5C3A-F0C12C7822C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,7 +4025,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6956A1F5-C132-3B04-9645-DA57117691C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E198F7B-7628-FDF3-1AA4-9243E4472AA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5430,7 +5430,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB95E7D-0D0C-1298-C791-69AB4AF3EE30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB19597-68CD-128C-26E5-0A21EE480623}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_DEU/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784C07B7-75CB-4717-96D5-10D3AA1A619E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD19848E-42DB-4097-8B3C-7D087FC37857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2620,7 +2620,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA94D1E-47F8-2AAF-5C3A-F0C12C7822C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77DDAF13-BF0F-78E9-4B88-53035FC3AF8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,7 +4025,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E198F7B-7628-FDF3-1AA4-9243E4472AA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDB1E4C-F8C4-3D27-996D-621A9BB5A8D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5430,7 +5430,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB19597-68CD-128C-26E5-0A21EE480623}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB7706D-63C7-1E32-6FC3-47F69B626295}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_DEU/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD19848E-42DB-4097-8B3C-7D087FC37857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F41844-3093-439F-821A-678E2EAD8D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2620,7 +2620,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77DDAF13-BF0F-78E9-4B88-53035FC3AF8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB919E0-D60C-FA63-1D2E-783C57CDAF40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,7 +4025,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDB1E4C-F8C4-3D27-996D-621A9BB5A8D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E00622-9A5B-E668-69DB-18F81B871DC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5430,7 +5430,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB7706D-63C7-1E32-6FC3-47F69B626295}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C8B31D-C509-13BF-E085-613DC5CF5501}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_DEU/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F41844-3093-439F-821A-678E2EAD8D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3758ABF-060D-4794-A6F1-6A57EAEB85E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2620,7 +2620,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB919E0-D60C-FA63-1D2E-783C57CDAF40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{244C4AB1-B8DA-F20E-D369-A380C731C11E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,7 +4025,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E00622-9A5B-E668-69DB-18F81B871DC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{585F693F-664D-FEDB-3D7B-5359F934DCE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5430,7 +5430,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C8B31D-C509-13BF-E085-613DC5CF5501}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D96E546-1738-7975-85C6-03343064B670}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_DEU/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3758ABF-060D-4794-A6F1-6A57EAEB85E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C787E54-103C-4439-BA00-C0F1C86E21D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2620,7 +2620,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{244C4AB1-B8DA-F20E-D369-A380C731C11E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDDA23E3-4D59-C139-7EDE-293DC9F2B503}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,7 +4025,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{585F693F-664D-FEDB-3D7B-5359F934DCE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{021B2D9B-85FD-E77D-4E3A-E6BC1296F877}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5430,7 +5430,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D96E546-1738-7975-85C6-03343064B670}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D63E883-829F-F5C2-7A15-E489053654E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_DEU/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C787E54-103C-4439-BA00-C0F1C86E21D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DF9385-547E-4BE8-9C70-6F748940DFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2620,7 +2620,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDDA23E3-4D59-C139-7EDE-293DC9F2B503}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8D10E8-D3CC-99DF-2E95-20434D7BDFE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,7 +4025,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{021B2D9B-85FD-E77D-4E3A-E6BC1296F877}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1E65F4-96F7-0C1E-2577-291620BECB74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5430,7 +5430,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D63E883-829F-F5C2-7A15-E489053654E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E3A090-13E2-F46E-EC77-20B7DF9965D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_DEU/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DF9385-547E-4BE8-9C70-6F748940DFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D11D886-EC84-468F-8937-BE03FC96CDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2620,7 +2620,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8D10E8-D3CC-99DF-2E95-20434D7BDFE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A0095C-82ED-3DF7-5EBB-8BAD44193863}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,7 +4025,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1E65F4-96F7-0C1E-2577-291620BECB74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB65AD03-089C-2A08-A229-52D81C6724F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5430,7 +5430,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E3A090-13E2-F46E-EC77-20B7DF9965D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{606F33E3-D691-573F-C3F1-78C50922F9E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_DEU/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D11D886-EC84-468F-8937-BE03FC96CDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEEB445-4467-49DA-9B2E-046ABE8C2400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2620,7 +2620,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A0095C-82ED-3DF7-5EBB-8BAD44193863}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32D067AD-0630-126C-1261-8104E8F85035}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,7 +4025,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB65AD03-089C-2A08-A229-52D81C6724F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC65C99-5FD9-E955-8AB8-02B2F5976920}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5430,7 +5430,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{606F33E3-D691-573F-C3F1-78C50922F9E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7050ABD-844F-18CD-D0BA-E149B00F0503}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_DEU/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4148CE2F-4630-4B95-8C3F-30A451BF0EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0929844-5895-4129-993C-C84A77FC1A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="fuel_prices" sheetId="4" r:id="rId2"/>
     <sheet name="iea_data" sheetId="2" r:id="rId3"/>
     <sheet name="ar6_r10" sheetId="3" r:id="rId4"/>
+    <sheet name="ev_charging_uc" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="118">
   <si>
     <t>~Inputcell: 1-5</t>
   </si>
@@ -287,9 +288,6 @@
     <t>Bioenergy</t>
   </si>
   <si>
-    <t>fuel_supply</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -297,6 +295,93 @@
   </si>
   <si>
     <t>~TFM_INS-TS: attribute=flo_cost</t>
+  </si>
+  <si>
+    <t>share of charging at night</t>
+  </si>
+  <si>
+    <t>~UC_Sets: R_E: AllRegions</t>
+  </si>
+  <si>
+    <t>UC_N</t>
+  </si>
+  <si>
+    <t>Pset_CI</t>
+  </si>
+  <si>
+    <t>Pset_CO</t>
+  </si>
+  <si>
+    <t>pset_pn</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>TimeSlice</t>
+  </si>
+  <si>
+    <t>UC_FLO</t>
+  </si>
+  <si>
+    <t>UC_RHSRT</t>
+  </si>
+  <si>
+    <t>UC_RHSRT~0</t>
+  </si>
+  <si>
+    <t>UC_bev night chg limit</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>*EV*</t>
+  </si>
+  <si>
+    <t>AuxStoIN</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>s1p1v1_d</t>
+  </si>
+  <si>
+    <t>s3p3v3_d</t>
+  </si>
+  <si>
+    <t>s2_w</t>
+  </si>
+  <si>
+    <t>s2_w_p2_d</t>
+  </si>
+  <si>
+    <t>ts12_clu</t>
+  </si>
+  <si>
+    <t>ts24_clu</t>
+  </si>
+  <si>
+    <t>ts48_clu</t>
+  </si>
+  <si>
+    <t>s5p5v5_d</t>
+  </si>
+  <si>
+    <t>s1_d</t>
+  </si>
+  <si>
+    <t>ts_annual</t>
+  </si>
+  <si>
+    <t>ts_12</t>
+  </si>
+  <si>
+    <t>pset_co</t>
   </si>
   <si>
     <t>DEU</t>
@@ -385,7 +470,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +490,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -459,7 +550,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
@@ -467,8 +558,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -481,12 +575,19 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="6"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="5"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="7"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="8"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="9"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="10">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17"/>
+    <cellStyle name="Heading 2 2" xfId="8" xr:uid="{A6AB1C46-4E7B-4C21-A104-E4DF3FE4CE4A}"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18"/>
+    <cellStyle name="Heading 3 2" xfId="9" xr:uid="{F2503A68-FC7E-4C35-8B5A-10334C80FC2A}"/>
     <cellStyle name="Input" xfId="6" builtinId="20"/>
+    <cellStyle name="Input 2" xfId="7" xr:uid="{08B5D232-691F-4F66-AEAC-8298A30D4B38}"/>
     <cellStyle name="Linked Cell" xfId="2" builtinId="24"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5539,18 +5640,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AA46"/>
+  <dimension ref="A2:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="12.06640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.53125" customWidth="1"/>
-    <col min="4" max="4" width="28.73046875" customWidth="1"/>
-    <col min="5" max="5" width="9.53125" customWidth="1"/>
+    <col min="4" max="4" width="1.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.53125" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.265625" bestFit="1" customWidth="1"/>
@@ -5559,69 +5660,85 @@
     <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B3" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="str">
+        <f>VLOOKUP(B3,$A$7:$C$999,2,FALSE)</f>
+        <v>s2_w</v>
+      </c>
       <c r="C5" s="1" t="str">
-        <f>VLOOKUP(B3,$B$7:$C$14,2,FALSE)</f>
+        <f>VLOOKUP(B3,$A$7:$C$999,3,FALSE)</f>
         <v>C3</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>1</v>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B8">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A8">
         <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="Q8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B9">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A9">
         <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="Q9" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10">
+    <row r="10" spans="1:27" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10">
         <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="Q10" s="3">
@@ -5632,111 +5749,154 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B11">
+    <row r="11" spans="1:27" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A11">
         <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" ref="C12:C61" si="0">C11</f>
+        <v>C7</v>
+      </c>
       <c r="R12" s="8">
         <f>Q10</f>
         <v>547.04999999999995</v>
       </c>
       <c r="S12" s="8">
-        <f t="shared" ref="S12:X12" si="0">$Q$10*H13</f>
+        <f t="shared" ref="S12:X12" si="1">$Q$10*H13</f>
         <v>574.40250000000003</v>
       </c>
       <c r="T12" s="8">
+        <f t="shared" si="1"/>
+        <v>640.04849999999988</v>
+      </c>
+      <c r="U12" s="8">
+        <f t="shared" si="1"/>
+        <v>722.10599999999999</v>
+      </c>
+      <c r="V12" s="8">
+        <f t="shared" si="1"/>
+        <v>820.57499999999993</v>
+      </c>
+      <c r="W12" s="8">
+        <f t="shared" si="1"/>
+        <v>919.04399999999987</v>
+      </c>
+      <c r="X12" s="8">
+        <f t="shared" si="1"/>
+        <v>990.16049999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>640.04849999999988</v>
-      </c>
-      <c r="U12" s="8">
+        <v>C7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="11">
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="11">
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
+        <v>1.05</v>
+      </c>
+      <c r="I13" s="11">
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
+        <v>1.17</v>
+      </c>
+      <c r="J13" s="11">
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
+        <v>1.32</v>
+      </c>
+      <c r="K13" s="11">
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
+        <v>1.5</v>
+      </c>
+      <c r="L13" s="11">
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
+        <v>1.68</v>
+      </c>
+      <c r="M13" s="11">
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>722.10599999999999</v>
-      </c>
-      <c r="V12" s="8">
-        <f t="shared" si="0"/>
-        <v>820.57499999999993</v>
-      </c>
-      <c r="W12" s="8">
-        <f t="shared" si="0"/>
-        <v>919.04399999999987</v>
-      </c>
-      <c r="X12" s="8">
-        <f t="shared" si="0"/>
-        <v>990.16049999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$D13)</f>
-        <v>1</v>
-      </c>
-      <c r="H13" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$D13)</f>
-        <v>1.05</v>
-      </c>
-      <c r="I13" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$D13)</f>
-        <v>1.17</v>
-      </c>
-      <c r="J13" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$D13)</f>
-        <v>1.32</v>
-      </c>
-      <c r="K13" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$D13)</f>
-        <v>1.5</v>
-      </c>
-      <c r="L13" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$D13)</f>
-        <v>1.68</v>
-      </c>
-      <c r="M13" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$D13)</f>
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="14" spans="2:27" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+        <v>C7</v>
+      </c>
       <c r="Q14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
       <c r="G15" s="7">
         <v>2020</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" ref="H15:M15" si="1">S15</f>
+        <f t="shared" ref="H15:M15" si="2">S15</f>
         <v>2025</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2030</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2035</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2040</v>
       </c>
       <c r="L15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2045</v>
       </c>
       <c r="M15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2050</v>
       </c>
       <c r="Q15" s="4" t="s">
@@ -5767,68 +5927,77 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="D16" t="s">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+      <c r="E16" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="11"/>
       <c r="G16" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$D16)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
         <v>0</v>
       </c>
       <c r="H16" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$D16)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
         <v>0</v>
       </c>
       <c r="I16" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$D16)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
         <v>0.01</v>
       </c>
       <c r="J16" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$D16)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
         <v>0.01</v>
       </c>
       <c r="K16" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$D16)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
         <v>0.01</v>
       </c>
       <c r="L16" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$D16)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
         <v>0.02</v>
       </c>
       <c r="M16" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$D16)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
         <v>0.03</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>17</v>
       </c>
       <c r="R16" s="6">
-        <f t="shared" ref="R16:X18" si="2">G16*R$12</f>
+        <f t="shared" ref="R16:X18" si="3">G16*R$12</f>
         <v>0</v>
       </c>
       <c r="S16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.4004849999999989</v>
       </c>
       <c r="U16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.2210600000000005</v>
       </c>
       <c r="V16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.2057500000000001</v>
       </c>
       <c r="W16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.380879999999998</v>
       </c>
       <c r="X16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.704814999999996</v>
       </c>
       <c r="Y16" t="s">
@@ -5836,170 +6005,201 @@
       </c>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D17" t="s">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+      <c r="E17" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$D17)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
         <v>0.36</v>
       </c>
       <c r="H17" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$D17)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
         <v>0.32</v>
       </c>
       <c r="I17" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$D17)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
         <v>0.31</v>
       </c>
       <c r="J17" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$D17)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="K17" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$D17)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="L17" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$D17)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="M17" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$D17)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
         <v>0.3</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="R17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>196.93799999999999</v>
       </c>
       <c r="S17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>183.80880000000002</v>
       </c>
       <c r="T17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>198.41503499999996</v>
       </c>
       <c r="U17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>209.41073999999998</v>
       </c>
       <c r="V17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>237.96674999999996</v>
       </c>
       <c r="W17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>266.52275999999995</v>
       </c>
       <c r="X17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>297.04814999999996</v>
       </c>
       <c r="Y17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D18" t="s">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" t="str">
+        <f>B7</f>
+        <v>s1p1v1_d</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$D18)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
         <v>0.6</v>
       </c>
       <c r="H18" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$D18)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
         <v>0.6</v>
       </c>
       <c r="I18" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$D18)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
         <v>0.6</v>
       </c>
       <c r="J18" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$D18)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
         <v>0.56999999999999995</v>
       </c>
       <c r="K18" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$D18)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
         <v>0.54</v>
       </c>
       <c r="L18" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$D18)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
         <v>0.52</v>
       </c>
       <c r="M18" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$D18)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
         <v>0.53</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>23</v>
       </c>
       <c r="R18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>328.22999999999996</v>
       </c>
       <c r="S18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>344.64150000000001</v>
       </c>
       <c r="T18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>384.02909999999991</v>
       </c>
       <c r="U18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>411.60041999999999</v>
       </c>
       <c r="V18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>443.1105</v>
       </c>
       <c r="W18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>477.90287999999993</v>
       </c>
       <c r="X18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>524.78506500000003</v>
       </c>
       <c r="Y18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="4:27" x14ac:dyDescent="0.45">
-      <c r="D19" t="s">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" ref="B19:B61" si="4">B8</f>
+        <v>s3p3v3_d</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+      <c r="E19" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$D19)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
         <v>0.03</v>
       </c>
       <c r="H19" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$D19)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
         <v>0.06</v>
       </c>
       <c r="I19" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$D19)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
         <v>0.08</v>
       </c>
       <c r="J19" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$D19)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
         <v>0.11</v>
       </c>
       <c r="K19" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$D19)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
         <v>0.12</v>
       </c>
       <c r="L19" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$D19)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
         <v>0.18</v>
       </c>
       <c r="M19" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$D19)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
         <v>0.19</v>
       </c>
       <c r="Q19" s="10" t="s">
@@ -6010,27 +6210,27 @@
         <v>16.411499999999997</v>
       </c>
       <c r="S19" s="6">
-        <f t="shared" ref="S19:X19" si="3">R19</f>
+        <f t="shared" ref="S19:X19" si="5">R19</f>
         <v>16.411499999999997</v>
       </c>
       <c r="T19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.411499999999997</v>
       </c>
       <c r="U19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.411499999999997</v>
       </c>
       <c r="V19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.411499999999997</v>
       </c>
       <c r="W19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.411499999999997</v>
       </c>
       <c r="X19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.411499999999997</v>
       </c>
       <c r="Y19" t="s">
@@ -6040,49 +6240,82 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="4:27" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="4"/>
+        <v>s2_w</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
       <c r="Q20" s="10" t="s">
         <v>26</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" ref="R20:X20" si="4">R12-SUM(R17:R19)</f>
+        <f t="shared" ref="R20:X20" si="6">R12-SUM(R17:R19)</f>
         <v>5.4705000000000155</v>
       </c>
       <c r="S20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>29.540700000000015</v>
       </c>
       <c r="T20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>41.192864999999983</v>
       </c>
       <c r="U20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>84.68333999999993</v>
       </c>
       <c r="V20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>123.08624999999995</v>
       </c>
       <c r="W20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>158.20685999999989</v>
       </c>
       <c r="X20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>151.91578499999991</v>
       </c>
       <c r="Y20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="4:27" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="4"/>
+        <v>s2_w_p2_d</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
       <c r="Q21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="4:27" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D22" s="10" t="s">
+    <row r="22" spans="1:27" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="4"/>
+        <v>ts12_clu</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G22" s="8">
@@ -6092,23 +6325,23 @@
         <v>0</v>
       </c>
       <c r="I22" s="8">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$D22)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
         <v>71.48</v>
       </c>
       <c r="J22" s="8">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$D22)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
         <v>104.42</v>
       </c>
       <c r="K22" s="8">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$D22)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
         <v>134.85</v>
       </c>
       <c r="L22" s="8">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$D22)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
         <v>178.1</v>
       </c>
       <c r="M22" s="8">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$D22)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
         <v>209.45</v>
       </c>
       <c r="Q22" t="s">
@@ -6141,42 +6374,76 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="4:27" ht="14.65" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="4:27" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:27" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="4"/>
+        <v>ts24_clu</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="4"/>
+        <v>ts48_clu</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
       <c r="Q24" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="4:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="4"/>
+        <v>s5p5v5_d</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
       <c r="Q25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R25" s="4">
-        <f t="shared" ref="R25:X25" si="5">R15</f>
+        <f t="shared" ref="R25:X25" si="7">R15</f>
         <v>2022</v>
       </c>
       <c r="S25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2025</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2030</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2035</v>
       </c>
       <c r="V25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2040</v>
       </c>
       <c r="W25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2045</v>
       </c>
       <c r="X25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2050</v>
       </c>
       <c r="Y25" s="4" t="s">
@@ -6186,7 +6453,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="4:27" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:27" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="4"/>
+        <v>s1_d</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
       <c r="O26" s="3">
         <f>SUMIFS(iea_data!G3:G9999,iea_data!$B$3:$B$9999,Veda!$Q$9)</f>
         <v>49.33</v>
@@ -6210,7 +6488,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="4:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="4"/>
+        <v>ts_annual</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
       <c r="O27" s="3">
         <f>SUMIFS(iea_data!H3:H9999,iea_data!$B$3:$B$9999,Veda!$Q$9)</f>
         <v>-76.59</v>
@@ -6234,159 +6523,333 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="4:27" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B35" t="s">
+    <row r="28" spans="1:27" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="4"/>
+        <v>ts_12</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="4"/>
+        <v>s1p1v1_d</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="4"/>
+        <v>s3p3v3_d</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="4"/>
+        <v>s2_w</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="4"/>
+        <v>s2_w_p2_d</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>27</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="4"/>
+        <v>ts12_clu</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="4"/>
+        <v>ts24_clu</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>29</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="4"/>
+        <v>ts48_clu</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+      <c r="E35" t="s">
         <v>75</v>
       </c>
       <c r="G35" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$D35)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E35)</f>
         <v>1</v>
       </c>
       <c r="H35" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$D35)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E35)</f>
         <v>1.07</v>
       </c>
       <c r="I35" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$D35)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E35)</f>
         <v>1.24</v>
       </c>
       <c r="J35" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$D35)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E35)</f>
         <v>1.1499999999999999</v>
       </c>
       <c r="K35" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$D35)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E35)</f>
         <v>1.25</v>
       </c>
       <c r="L35" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$D35)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E35)</f>
         <v>1.17</v>
       </c>
       <c r="M35" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$D35)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E35)</f>
         <v>1.34</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D36" t="s">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="4"/>
+        <v>s5p5v5_d</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+      <c r="E36" t="s">
         <v>76</v>
       </c>
       <c r="G36" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$D36)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E36)</f>
         <v>1</v>
       </c>
       <c r="H36" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$D36)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E36)</f>
         <v>1.02</v>
       </c>
       <c r="I36" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$D36)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E36)</f>
         <v>1.06</v>
       </c>
       <c r="J36" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$D36)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E36)</f>
         <v>1.07</v>
       </c>
       <c r="K36" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$D36)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E36)</f>
         <v>1.08</v>
       </c>
       <c r="L36" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$D36)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E36)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="M36" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$D36)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E36)</f>
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D37" t="s">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>31</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="4"/>
+        <v>s1_d</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+      <c r="E37" t="s">
         <v>77</v>
       </c>
       <c r="G37" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$D37)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E37)</f>
         <v>1</v>
       </c>
       <c r="H37" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$D37)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E37)</f>
         <v>1.01</v>
       </c>
       <c r="I37" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$D37)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E37)</f>
         <v>1.1100000000000001</v>
       </c>
       <c r="J37" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$D37)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E37)</f>
         <v>1.01</v>
       </c>
       <c r="K37" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$D37)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E37)</f>
         <v>1.01</v>
       </c>
       <c r="L37" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$D37)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E37)</f>
         <v>1.04</v>
       </c>
       <c r="M37" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$D37)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E37)</f>
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D38" t="s">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="4"/>
+        <v>ts_annual</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+      <c r="E38" t="s">
         <v>78</v>
       </c>
       <c r="G38" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$D38)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!G$15,ar6_r10!$M$2:$M$999,Veda!$E38)</f>
         <v>1</v>
       </c>
       <c r="H38" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$D38)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E38)</f>
         <v>0.96</v>
       </c>
       <c r="I38" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$D38)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E38)</f>
         <v>1.04</v>
       </c>
       <c r="J38" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$D38)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E38)</f>
         <v>1.04</v>
       </c>
       <c r="K38" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$D38)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E38)</f>
         <v>0.98</v>
       </c>
       <c r="L38" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$D38)</f>
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E38)</f>
         <v>0.99</v>
       </c>
       <c r="M38" s="11">
-        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$B$35,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$D38)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.45">
+        <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$E$34,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E38)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="4"/>
+        <v>ts_12</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="4"/>
+        <v>s1p1v1_d</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="4"/>
+        <v>s3p3v3_d</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
+      </c>
       <c r="E41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>36</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="4"/>
+        <v>s2_w</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="G42">
         <v>2022</v>
@@ -6396,131 +6859,165 @@
         <v>2025</v>
       </c>
       <c r="I42">
-        <f t="shared" ref="I42:M42" si="6">I15</f>
+        <f t="shared" ref="I42:M42" si="8">I15</f>
         <v>2030</v>
       </c>
       <c r="J42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2035</v>
       </c>
       <c r="K42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2040</v>
       </c>
       <c r="L42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2045</v>
       </c>
       <c r="M42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2050</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B43">
-        <f>HLOOKUP($E43&amp;"_"&amp;B$42,fuel_prices!$B$10:$I$11,2,FALSE)</f>
-        <v>29.1</v>
-      </c>
-      <c r="C43">
-        <f>HLOOKUP($E43&amp;"_"&amp;C$42,fuel_prices!$B$10:$I$11,2,FALSE)</f>
-        <v>41.1</v>
+      <c r="P42" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>37</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="4"/>
+        <v>s2_w_p2_d</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
       </c>
       <c r="E43" t="s">
         <v>79</v>
       </c>
-      <c r="F43" t="s">
-        <v>83</v>
+      <c r="F43" t="str">
+        <f>E43</f>
+        <v>Gas</v>
       </c>
       <c r="G43">
-        <f>AVERAGE($B43:$C43)*G35</f>
+        <f t="shared" ref="G43:M46" si="9">AVERAGE($P43:$Q43)*G35</f>
         <v>35.1</v>
       </c>
       <c r="H43">
-        <f t="shared" ref="H43:M43" si="7">AVERAGE($B43:$C43)*H35</f>
+        <f t="shared" si="9"/>
         <v>37.557000000000002</v>
       </c>
       <c r="I43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>43.524000000000001</v>
       </c>
       <c r="J43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>40.365000000000002</v>
       </c>
       <c r="K43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>43.875</v>
       </c>
       <c r="L43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>41.067</v>
       </c>
       <c r="M43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>47.034000000000006</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B44">
-        <f>HLOOKUP($E44&amp;"_"&amp;B$42,fuel_prices!$B$10:$I$11,2,FALSE)</f>
-        <v>13.7</v>
-      </c>
-      <c r="C44">
-        <f>HLOOKUP($E44&amp;"_"&amp;C$42,fuel_prices!$B$10:$I$11,2,FALSE)</f>
-        <v>16.7</v>
+      <c r="P43">
+        <f>HLOOKUP($E43&amp;"_"&amp;P$42,fuel_prices!$B$10:$I$11,2,FALSE)</f>
+        <v>29.1</v>
+      </c>
+      <c r="Q43">
+        <f>HLOOKUP($E43&amp;"_"&amp;Q$42,fuel_prices!$B$10:$I$11,2,FALSE)</f>
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="4"/>
+        <v>ts12_clu</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
       </c>
       <c r="E44" t="s">
         <v>80</v>
       </c>
-      <c r="F44" t="s">
-        <v>83</v>
+      <c r="F44" t="str">
+        <f t="shared" ref="F44:F46" si="10">E44</f>
+        <v>Coal</v>
       </c>
       <c r="G44">
-        <f t="shared" ref="G44:M44" si="8">AVERAGE($B44:$C44)*G36</f>
+        <f t="shared" si="9"/>
         <v>15.2</v>
       </c>
       <c r="H44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15.504</v>
       </c>
       <c r="I44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16.111999999999998</v>
       </c>
       <c r="J44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16.263999999999999</v>
       </c>
       <c r="K44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16.416</v>
       </c>
       <c r="L44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16.72</v>
       </c>
       <c r="M44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17.024000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B45">
-        <f>HLOOKUP($E45&amp;"_"&amp;B$42,fuel_prices!$B$10:$I$11,2,FALSE)</f>
-        <v>48</v>
-      </c>
-      <c r="C45">
-        <f>HLOOKUP($E45&amp;"_"&amp;C$42,fuel_prices!$B$10:$I$11,2,FALSE)</f>
-        <v>58</v>
+      <c r="P44">
+        <f>HLOOKUP($E44&amp;"_"&amp;P$42,fuel_prices!$B$10:$I$11,2,FALSE)</f>
+        <v>13.7</v>
+      </c>
+      <c r="Q44">
+        <f>HLOOKUP($E44&amp;"_"&amp;Q$42,fuel_prices!$B$10:$I$11,2,FALSE)</f>
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="4"/>
+        <v>ts24_clu</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
       </c>
       <c r="E45" t="s">
         <v>81</v>
       </c>
-      <c r="F45" t="s">
-        <v>83</v>
+      <c r="F45" t="str">
+        <f t="shared" si="10"/>
+        <v>Oil</v>
       </c>
       <c r="G45">
-        <f t="shared" ref="G45:M45" si="9">AVERAGE($B45:$C45)*G37</f>
+        <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="H45">
@@ -6547,55 +7044,269 @@
         <f t="shared" si="9"/>
         <v>60.419999999999995</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B46">
-        <f>HLOOKUP($E46&amp;"_"&amp;B$42,fuel_prices!$B$10:$I$11,2,FALSE)</f>
-        <v>24</v>
-      </c>
-      <c r="C46">
-        <f>HLOOKUP($E46&amp;"_"&amp;C$42,fuel_prices!$B$10:$I$11,2,FALSE)</f>
-        <v>32</v>
+      <c r="P45">
+        <f>HLOOKUP($E45&amp;"_"&amp;P$42,fuel_prices!$B$10:$I$11,2,FALSE)</f>
+        <v>48</v>
+      </c>
+      <c r="Q45">
+        <f>HLOOKUP($E45&amp;"_"&amp;Q$42,fuel_prices!$B$10:$I$11,2,FALSE)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>40</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="4"/>
+        <v>ts48_clu</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
       </c>
       <c r="E46" t="s">
         <v>82</v>
       </c>
-      <c r="F46" t="s">
-        <v>83</v>
+      <c r="F46" t="str">
+        <f t="shared" si="10"/>
+        <v>Bioenergy</v>
       </c>
       <c r="G46">
-        <f t="shared" ref="G46:M46" si="10">AVERAGE($B46:$C46)*G38</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="H46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>26.88</v>
       </c>
       <c r="I46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>29.12</v>
       </c>
       <c r="J46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>29.12</v>
       </c>
       <c r="K46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>27.439999999999998</v>
       </c>
       <c r="L46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>27.72</v>
       </c>
       <c r="M46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>28</v>
+      </c>
+      <c r="P46">
+        <f>HLOOKUP($E46&amp;"_"&amp;P$42,fuel_prices!$B$10:$I$11,2,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="Q46">
+        <f>HLOOKUP($E46&amp;"_"&amp;Q$42,fuel_prices!$B$10:$I$11,2,FALSE)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="4"/>
+        <v>s5p5v5_d</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>42</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="4"/>
+        <v>s1_d</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>43</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="4"/>
+        <v>ts_annual</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="4"/>
+        <v>ts_12</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="4"/>
+        <v>s1p1v1_d</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>46</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="4"/>
+        <v>s3p3v3_d</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>47</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="4"/>
+        <v>s2_w</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>48</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="4"/>
+        <v>s2_w_p2_d</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>49</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="4"/>
+        <v>ts12_clu</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>50</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="4"/>
+        <v>ts24_clu</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>51</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="4"/>
+        <v>ts48_clu</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>52</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="4"/>
+        <v>s5p5v5_d</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>53</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="4"/>
+        <v>s1_d</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>54</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="4"/>
+        <v>ts_annual</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="4"/>
+        <v>ts_12</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>C7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6604,7 +7315,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6655,7 +7366,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B11">
         <v>29.1</v>
@@ -6682,7 +7393,7 @@
         <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -6696,7 +7407,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6748,7 +7459,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B11">
         <v>2000</v>
@@ -6777,7 +7488,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B12">
         <v>2001</v>
@@ -6806,7 +7517,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B13">
         <v>2002</v>
@@ -6835,7 +7546,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B14">
         <v>2003</v>
@@ -6864,7 +7575,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B15">
         <v>2004</v>
@@ -6893,7 +7604,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B16">
         <v>2005</v>
@@ -6922,7 +7633,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B17">
         <v>2006</v>
@@ -6951,7 +7662,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B18">
         <v>2007</v>
@@ -6980,7 +7691,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B19">
         <v>2008</v>
@@ -7009,7 +7720,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B20">
         <v>2009</v>
@@ -7038,7 +7749,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B21">
         <v>2010</v>
@@ -7067,7 +7778,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B22">
         <v>2011</v>
@@ -7096,7 +7807,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B23">
         <v>2012</v>
@@ -7125,7 +7836,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B24">
         <v>2013</v>
@@ -7154,7 +7865,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B25">
         <v>2014</v>
@@ -7183,7 +7894,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B26">
         <v>2015</v>
@@ -7212,7 +7923,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B27">
         <v>2016</v>
@@ -7241,7 +7952,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B28">
         <v>2017</v>
@@ -7270,7 +7981,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B29">
         <v>2018</v>
@@ -7299,7 +8010,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B30">
         <v>2019</v>
@@ -7328,7 +8039,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B31">
         <v>2020</v>
@@ -7357,7 +8068,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B32">
         <v>2021</v>
@@ -7386,7 +8097,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B33">
         <v>2022</v>
@@ -7491,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C11">
         <v>2020</v>
@@ -7532,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C12">
         <v>2025</v>
@@ -7573,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C13">
         <v>2030</v>
@@ -7614,7 +8325,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C14">
         <v>2035</v>
@@ -7655,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C15">
         <v>2040</v>
@@ -7696,7 +8407,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C16">
         <v>2045</v>
@@ -7737,7 +8448,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C17">
         <v>2050</v>
@@ -7778,7 +8489,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C18">
         <v>2020</v>
@@ -7819,7 +8530,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C19">
         <v>2025</v>
@@ -7860,7 +8571,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C20">
         <v>2030</v>
@@ -7901,7 +8612,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C21">
         <v>2035</v>
@@ -7942,7 +8653,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C22">
         <v>2040</v>
@@ -7983,7 +8694,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C23">
         <v>2045</v>
@@ -8024,7 +8735,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C24">
         <v>2050</v>
@@ -8065,7 +8776,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C25">
         <v>2020</v>
@@ -8106,7 +8817,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C26">
         <v>2025</v>
@@ -8147,7 +8858,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C27">
         <v>2030</v>
@@ -8188,7 +8899,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C28">
         <v>2035</v>
@@ -8229,7 +8940,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C29">
         <v>2040</v>
@@ -8270,7 +8981,7 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C30">
         <v>2045</v>
@@ -8311,7 +9022,7 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C31">
         <v>2050</v>
@@ -8352,7 +9063,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C32">
         <v>2020</v>
@@ -8393,7 +9104,7 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C33">
         <v>2025</v>
@@ -8434,7 +9145,7 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C34">
         <v>2030</v>
@@ -8475,7 +9186,7 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C35">
         <v>2035</v>
@@ -8516,7 +9227,7 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C36">
         <v>2040</v>
@@ -8557,7 +9268,7 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C37">
         <v>2045</v>
@@ -8598,7 +9309,7 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C38">
         <v>2050</v>
@@ -8639,7 +9350,7 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C39">
         <v>2020</v>
@@ -8680,7 +9391,7 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C40">
         <v>2025</v>
@@ -8721,7 +9432,7 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C41">
         <v>2030</v>
@@ -8762,7 +9473,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C42">
         <v>2035</v>
@@ -8803,7 +9514,7 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C43">
         <v>2040</v>
@@ -8844,7 +9555,7 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C44">
         <v>2045</v>
@@ -8885,7 +9596,7 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C45">
         <v>2050</v>
@@ -8926,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C46">
         <v>2020</v>
@@ -8967,7 +9678,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C47">
         <v>2025</v>
@@ -9008,7 +9719,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C48">
         <v>2030</v>
@@ -9049,7 +9760,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C49">
         <v>2035</v>
@@ -9090,7 +9801,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C50">
         <v>2040</v>
@@ -9131,7 +9842,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C51">
         <v>2045</v>
@@ -9172,7 +9883,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C52">
         <v>2050</v>
@@ -9213,7 +9924,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C53">
         <v>2020</v>
@@ -9254,7 +9965,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C54">
         <v>2025</v>
@@ -9295,7 +10006,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C55">
         <v>2030</v>
@@ -9336,7 +10047,7 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C56">
         <v>2035</v>
@@ -9377,7 +10088,7 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C57">
         <v>2040</v>
@@ -9418,7 +10129,7 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C58">
         <v>2045</v>
@@ -9459,7 +10170,7 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C59">
         <v>2050</v>
@@ -9500,7 +10211,7 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C60">
         <v>2020</v>
@@ -9541,7 +10252,7 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C61">
         <v>2025</v>
@@ -9582,7 +10293,7 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C62">
         <v>2030</v>
@@ -9623,7 +10334,7 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C63">
         <v>2035</v>
@@ -9664,7 +10375,7 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C64">
         <v>2040</v>
@@ -9705,7 +10416,7 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C65">
         <v>2045</v>
@@ -9746,7 +10457,7 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C66">
         <v>2050</v>
@@ -9787,7 +10498,7 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C67">
         <v>2020</v>
@@ -9828,7 +10539,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C68">
         <v>2025</v>
@@ -9869,7 +10580,7 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C69">
         <v>2030</v>
@@ -9910,7 +10621,7 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C70">
         <v>2035</v>
@@ -9951,7 +10662,7 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C71">
         <v>2040</v>
@@ -9992,7 +10703,7 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C72">
         <v>2045</v>
@@ -10033,7 +10744,7 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C73">
         <v>2050</v>
@@ -10074,7 +10785,7 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C74">
         <v>2020</v>
@@ -10115,7 +10826,7 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C75">
         <v>2025</v>
@@ -10156,7 +10867,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C76">
         <v>2030</v>
@@ -10197,7 +10908,7 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C77">
         <v>2035</v>
@@ -10238,7 +10949,7 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C78">
         <v>2040</v>
@@ -10279,7 +10990,7 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C79">
         <v>2045</v>
@@ -10320,7 +11031,7 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C80">
         <v>2050</v>
@@ -10361,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C81">
         <v>2020</v>
@@ -10402,7 +11113,7 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C82">
         <v>2025</v>
@@ -10443,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C83">
         <v>2030</v>
@@ -10484,7 +11195,7 @@
         <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C84">
         <v>2035</v>
@@ -10525,7 +11236,7 @@
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C85">
         <v>2040</v>
@@ -10566,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C86">
         <v>2045</v>
@@ -10607,7 +11318,7 @@
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C87">
         <v>2050</v>
@@ -10648,7 +11359,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C88">
         <v>2020</v>
@@ -10689,7 +11400,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C89">
         <v>2025</v>
@@ -10730,7 +11441,7 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C90">
         <v>2030</v>
@@ -10771,7 +11482,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C91">
         <v>2035</v>
@@ -10812,7 +11523,7 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C92">
         <v>2040</v>
@@ -10853,7 +11564,7 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C93">
         <v>2045</v>
@@ -10894,7 +11605,7 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C94">
         <v>2050</v>
@@ -10935,7 +11646,7 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C95">
         <v>2020</v>
@@ -10976,7 +11687,7 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C96">
         <v>2025</v>
@@ -11017,7 +11728,7 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C97">
         <v>2030</v>
@@ -11058,7 +11769,7 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C98">
         <v>2035</v>
@@ -11099,7 +11810,7 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C99">
         <v>2040</v>
@@ -11140,7 +11851,7 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C100">
         <v>2045</v>
@@ -11181,7 +11892,7 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C101">
         <v>2050</v>
@@ -11222,7 +11933,7 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C102">
         <v>2020</v>
@@ -11263,7 +11974,7 @@
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C103">
         <v>2025</v>
@@ -11304,7 +12015,7 @@
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C104">
         <v>2030</v>
@@ -11345,7 +12056,7 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C105">
         <v>2035</v>
@@ -11386,7 +12097,7 @@
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C106">
         <v>2040</v>
@@ -11427,7 +12138,7 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C107">
         <v>2045</v>
@@ -11468,7 +12179,7 @@
         <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C108">
         <v>2050</v>
@@ -11509,7 +12220,7 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C109">
         <v>2020</v>
@@ -11550,7 +12261,7 @@
         <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C110">
         <v>2025</v>
@@ -11591,7 +12302,7 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C111">
         <v>2030</v>
@@ -11632,7 +12343,7 @@
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C112">
         <v>2035</v>
@@ -11673,7 +12384,7 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C113">
         <v>2040</v>
@@ -11714,7 +12425,7 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C114">
         <v>2045</v>
@@ -11755,7 +12466,7 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C115">
         <v>2050</v>
@@ -11796,7 +12507,7 @@
         <v>1</v>
       </c>
       <c r="B116" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C116">
         <v>2020</v>
@@ -11837,7 +12548,7 @@
         <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C117">
         <v>2025</v>
@@ -11878,7 +12589,7 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C118">
         <v>2030</v>
@@ -11919,7 +12630,7 @@
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C119">
         <v>2035</v>
@@ -11960,7 +12671,7 @@
         <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C120">
         <v>2040</v>
@@ -12001,7 +12712,7 @@
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C121">
         <v>2045</v>
@@ -12042,7 +12753,7 @@
         <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C122">
         <v>2050</v>
@@ -12083,7 +12794,7 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C123">
         <v>2020</v>
@@ -12124,7 +12835,7 @@
         <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C124">
         <v>2025</v>
@@ -12165,7 +12876,7 @@
         <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C125">
         <v>2030</v>
@@ -12206,7 +12917,7 @@
         <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C126">
         <v>2035</v>
@@ -12247,7 +12958,7 @@
         <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C127">
         <v>2040</v>
@@ -12288,7 +12999,7 @@
         <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C128">
         <v>2045</v>
@@ -12329,7 +13040,7 @@
         <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C129">
         <v>2050</v>
@@ -12370,7 +13081,7 @@
         <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C130">
         <v>2020</v>
@@ -12411,7 +13122,7 @@
         <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C131">
         <v>2025</v>
@@ -12452,7 +13163,7 @@
         <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C132">
         <v>2030</v>
@@ -12493,7 +13204,7 @@
         <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C133">
         <v>2035</v>
@@ -12534,7 +13245,7 @@
         <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C134">
         <v>2040</v>
@@ -12575,7 +13286,7 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C135">
         <v>2045</v>
@@ -12616,7 +13327,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C136">
         <v>2050</v>
@@ -12657,7 +13368,7 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C137">
         <v>2020</v>
@@ -12698,7 +13409,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C138">
         <v>2025</v>
@@ -12739,7 +13450,7 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C139">
         <v>2030</v>
@@ -12780,7 +13491,7 @@
         <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C140">
         <v>2035</v>
@@ -12821,7 +13532,7 @@
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C141">
         <v>2040</v>
@@ -12862,7 +13573,7 @@
         <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C142">
         <v>2045</v>
@@ -12903,7 +13614,7 @@
         <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C143">
         <v>2050</v>
@@ -12944,7 +13655,7 @@
         <v>10</v>
       </c>
       <c r="B144" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C144">
         <v>2020</v>
@@ -12985,7 +13696,7 @@
         <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C145">
         <v>2025</v>
@@ -13026,7 +13737,7 @@
         <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C146">
         <v>2030</v>
@@ -13067,7 +13778,7 @@
         <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C147">
         <v>2035</v>
@@ -13108,7 +13819,7 @@
         <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C148">
         <v>2040</v>
@@ -13149,7 +13860,7 @@
         <v>10</v>
       </c>
       <c r="B149" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C149">
         <v>2045</v>
@@ -13190,7 +13901,7 @@
         <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C150">
         <v>2050</v>
@@ -13231,7 +13942,7 @@
         <v>1</v>
       </c>
       <c r="B151" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C151">
         <v>2020</v>
@@ -13272,7 +13983,7 @@
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C152">
         <v>2025</v>
@@ -13313,7 +14024,7 @@
         <v>1</v>
       </c>
       <c r="B153" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C153">
         <v>2030</v>
@@ -13354,7 +14065,7 @@
         <v>1</v>
       </c>
       <c r="B154" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C154">
         <v>2035</v>
@@ -13395,7 +14106,7 @@
         <v>1</v>
       </c>
       <c r="B155" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C155">
         <v>2040</v>
@@ -13436,7 +14147,7 @@
         <v>1</v>
       </c>
       <c r="B156" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C156">
         <v>2045</v>
@@ -13477,7 +14188,7 @@
         <v>1</v>
       </c>
       <c r="B157" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C157">
         <v>2050</v>
@@ -13518,7 +14229,7 @@
         <v>3</v>
       </c>
       <c r="B158" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C158">
         <v>2020</v>
@@ -13559,7 +14270,7 @@
         <v>3</v>
       </c>
       <c r="B159" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C159">
         <v>2025</v>
@@ -13600,7 +14311,7 @@
         <v>3</v>
       </c>
       <c r="B160" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C160">
         <v>2030</v>
@@ -13641,7 +14352,7 @@
         <v>3</v>
       </c>
       <c r="B161" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C161">
         <v>2035</v>
@@ -13682,7 +14393,7 @@
         <v>3</v>
       </c>
       <c r="B162" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C162">
         <v>2040</v>
@@ -13723,7 +14434,7 @@
         <v>3</v>
       </c>
       <c r="B163" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C163">
         <v>2045</v>
@@ -13764,7 +14475,7 @@
         <v>3</v>
       </c>
       <c r="B164" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C164">
         <v>2050</v>
@@ -13805,7 +14516,7 @@
         <v>6</v>
       </c>
       <c r="B165" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C165">
         <v>2020</v>
@@ -13846,7 +14557,7 @@
         <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C166">
         <v>2025</v>
@@ -13887,7 +14598,7 @@
         <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C167">
         <v>2030</v>
@@ -13928,7 +14639,7 @@
         <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C168">
         <v>2035</v>
@@ -13969,7 +14680,7 @@
         <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C169">
         <v>2040</v>
@@ -14010,7 +14721,7 @@
         <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C170">
         <v>2045</v>
@@ -14051,7 +14762,7 @@
         <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C171">
         <v>2050</v>
@@ -14092,7 +14803,7 @@
         <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C172">
         <v>2020</v>
@@ -14133,7 +14844,7 @@
         <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C173">
         <v>2025</v>
@@ -14174,7 +14885,7 @@
         <v>8</v>
       </c>
       <c r="B174" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C174">
         <v>2030</v>
@@ -14215,7 +14926,7 @@
         <v>8</v>
       </c>
       <c r="B175" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C175">
         <v>2035</v>
@@ -14256,7 +14967,7 @@
         <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C176">
         <v>2040</v>
@@ -14297,7 +15008,7 @@
         <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C177">
         <v>2045</v>
@@ -14338,7 +15049,7 @@
         <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C178">
         <v>2050</v>
@@ -14379,7 +15090,7 @@
         <v>10</v>
       </c>
       <c r="B179" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C179">
         <v>2020</v>
@@ -14420,7 +15131,7 @@
         <v>10</v>
       </c>
       <c r="B180" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C180">
         <v>2025</v>
@@ -14461,7 +15172,7 @@
         <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C181">
         <v>2030</v>
@@ -14502,7 +15213,7 @@
         <v>10</v>
       </c>
       <c r="B182" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C182">
         <v>2035</v>
@@ -14543,7 +15254,7 @@
         <v>10</v>
       </c>
       <c r="B183" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C183">
         <v>2040</v>
@@ -14584,7 +15295,7 @@
         <v>10</v>
       </c>
       <c r="B184" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C184">
         <v>2045</v>
@@ -14625,7 +15336,7 @@
         <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C185">
         <v>2050</v>
@@ -14666,7 +15377,7 @@
         <v>1</v>
       </c>
       <c r="B186" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C186">
         <v>2020</v>
@@ -14707,7 +15418,7 @@
         <v>1</v>
       </c>
       <c r="B187" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C187">
         <v>2025</v>
@@ -14748,7 +15459,7 @@
         <v>1</v>
       </c>
       <c r="B188" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C188">
         <v>2030</v>
@@ -14789,7 +15500,7 @@
         <v>1</v>
       </c>
       <c r="B189" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C189">
         <v>2035</v>
@@ -14830,7 +15541,7 @@
         <v>1</v>
       </c>
       <c r="B190" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C190">
         <v>2040</v>
@@ -14871,7 +15582,7 @@
         <v>1</v>
       </c>
       <c r="B191" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C191">
         <v>2045</v>
@@ -14912,7 +15623,7 @@
         <v>1</v>
       </c>
       <c r="B192" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C192">
         <v>2050</v>
@@ -14953,7 +15664,7 @@
         <v>3</v>
       </c>
       <c r="B193" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C193">
         <v>2020</v>
@@ -14994,7 +15705,7 @@
         <v>3</v>
       </c>
       <c r="B194" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C194">
         <v>2025</v>
@@ -15035,7 +15746,7 @@
         <v>3</v>
       </c>
       <c r="B195" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C195">
         <v>2030</v>
@@ -15076,7 +15787,7 @@
         <v>3</v>
       </c>
       <c r="B196" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C196">
         <v>2035</v>
@@ -15117,7 +15828,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C197">
         <v>2040</v>
@@ -15158,7 +15869,7 @@
         <v>3</v>
       </c>
       <c r="B198" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C198">
         <v>2045</v>
@@ -15199,7 +15910,7 @@
         <v>3</v>
       </c>
       <c r="B199" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C199">
         <v>2050</v>
@@ -15240,7 +15951,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C200">
         <v>2020</v>
@@ -15281,7 +15992,7 @@
         <v>6</v>
       </c>
       <c r="B201" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C201">
         <v>2025</v>
@@ -15322,7 +16033,7 @@
         <v>6</v>
       </c>
       <c r="B202" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C202">
         <v>2030</v>
@@ -15363,7 +16074,7 @@
         <v>6</v>
       </c>
       <c r="B203" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C203">
         <v>2035</v>
@@ -15404,7 +16115,7 @@
         <v>6</v>
       </c>
       <c r="B204" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C204">
         <v>2040</v>
@@ -15445,7 +16156,7 @@
         <v>6</v>
       </c>
       <c r="B205" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C205">
         <v>2045</v>
@@ -15486,7 +16197,7 @@
         <v>6</v>
       </c>
       <c r="B206" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C206">
         <v>2050</v>
@@ -15527,7 +16238,7 @@
         <v>8</v>
       </c>
       <c r="B207" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C207">
         <v>2020</v>
@@ -15568,7 +16279,7 @@
         <v>8</v>
       </c>
       <c r="B208" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C208">
         <v>2025</v>
@@ -15609,7 +16320,7 @@
         <v>8</v>
       </c>
       <c r="B209" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C209">
         <v>2030</v>
@@ -15650,7 +16361,7 @@
         <v>8</v>
       </c>
       <c r="B210" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C210">
         <v>2035</v>
@@ -15691,7 +16402,7 @@
         <v>8</v>
       </c>
       <c r="B211" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C211">
         <v>2040</v>
@@ -15732,7 +16443,7 @@
         <v>8</v>
       </c>
       <c r="B212" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C212">
         <v>2045</v>
@@ -15773,7 +16484,7 @@
         <v>8</v>
       </c>
       <c r="B213" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C213">
         <v>2050</v>
@@ -15814,7 +16525,7 @@
         <v>10</v>
       </c>
       <c r="B214" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C214">
         <v>2020</v>
@@ -15855,7 +16566,7 @@
         <v>10</v>
       </c>
       <c r="B215" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C215">
         <v>2025</v>
@@ -15896,7 +16607,7 @@
         <v>10</v>
       </c>
       <c r="B216" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C216">
         <v>2030</v>
@@ -15937,7 +16648,7 @@
         <v>10</v>
       </c>
       <c r="B217" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C217">
         <v>2035</v>
@@ -15978,7 +16689,7 @@
         <v>10</v>
       </c>
       <c r="B218" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C218">
         <v>2040</v>
@@ -16019,7 +16730,7 @@
         <v>10</v>
       </c>
       <c r="B219" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C219">
         <v>2045</v>
@@ -16060,7 +16771,7 @@
         <v>10</v>
       </c>
       <c r="B220" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C220">
         <v>2050</v>
@@ -16101,7 +16812,7 @@
         <v>1</v>
       </c>
       <c r="B221" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C221">
         <v>2020</v>
@@ -16142,7 +16853,7 @@
         <v>1</v>
       </c>
       <c r="B222" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C222">
         <v>2025</v>
@@ -16180,7 +16891,7 @@
         <v>1</v>
       </c>
       <c r="B223" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C223">
         <v>2030</v>
@@ -16218,7 +16929,7 @@
         <v>1</v>
       </c>
       <c r="B224" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C224">
         <v>2035</v>
@@ -16256,7 +16967,7 @@
         <v>1</v>
       </c>
       <c r="B225" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C225">
         <v>2040</v>
@@ -16294,7 +17005,7 @@
         <v>1</v>
       </c>
       <c r="B226" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C226">
         <v>2045</v>
@@ -16332,7 +17043,7 @@
         <v>1</v>
       </c>
       <c r="B227" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C227">
         <v>2050</v>
@@ -16370,7 +17081,7 @@
         <v>3</v>
       </c>
       <c r="B228" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C228">
         <v>2020</v>
@@ -16411,7 +17122,7 @@
         <v>3</v>
       </c>
       <c r="B229" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C229">
         <v>2025</v>
@@ -16449,7 +17160,7 @@
         <v>3</v>
       </c>
       <c r="B230" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C230">
         <v>2030</v>
@@ -16487,7 +17198,7 @@
         <v>3</v>
       </c>
       <c r="B231" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C231">
         <v>2035</v>
@@ -16525,7 +17236,7 @@
         <v>3</v>
       </c>
       <c r="B232" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C232">
         <v>2040</v>
@@ -16563,7 +17274,7 @@
         <v>3</v>
       </c>
       <c r="B233" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C233">
         <v>2045</v>
@@ -16601,7 +17312,7 @@
         <v>3</v>
       </c>
       <c r="B234" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C234">
         <v>2050</v>
@@ -16639,7 +17350,7 @@
         <v>6</v>
       </c>
       <c r="B235" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C235">
         <v>2020</v>
@@ -16680,7 +17391,7 @@
         <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C236">
         <v>2025</v>
@@ -16718,7 +17429,7 @@
         <v>6</v>
       </c>
       <c r="B237" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C237">
         <v>2030</v>
@@ -16756,7 +17467,7 @@
         <v>6</v>
       </c>
       <c r="B238" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C238">
         <v>2035</v>
@@ -16794,7 +17505,7 @@
         <v>6</v>
       </c>
       <c r="B239" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C239">
         <v>2040</v>
@@ -16832,7 +17543,7 @@
         <v>6</v>
       </c>
       <c r="B240" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C240">
         <v>2045</v>
@@ -16870,7 +17581,7 @@
         <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C241">
         <v>2050</v>
@@ -16908,7 +17619,7 @@
         <v>8</v>
       </c>
       <c r="B242" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C242">
         <v>2020</v>
@@ -16949,7 +17660,7 @@
         <v>8</v>
       </c>
       <c r="B243" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C243">
         <v>2025</v>
@@ -16990,7 +17701,7 @@
         <v>8</v>
       </c>
       <c r="B244" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C244">
         <v>2030</v>
@@ -17031,7 +17742,7 @@
         <v>8</v>
       </c>
       <c r="B245" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C245">
         <v>2035</v>
@@ -17072,7 +17783,7 @@
         <v>8</v>
       </c>
       <c r="B246" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C246">
         <v>2040</v>
@@ -17113,7 +17824,7 @@
         <v>8</v>
       </c>
       <c r="B247" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C247">
         <v>2045</v>
@@ -17154,7 +17865,7 @@
         <v>8</v>
       </c>
       <c r="B248" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C248">
         <v>2050</v>
@@ -17195,7 +17906,7 @@
         <v>10</v>
       </c>
       <c r="B249" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C249">
         <v>2020</v>
@@ -17236,7 +17947,7 @@
         <v>10</v>
       </c>
       <c r="B250" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C250">
         <v>2025</v>
@@ -17277,7 +17988,7 @@
         <v>10</v>
       </c>
       <c r="B251" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C251">
         <v>2030</v>
@@ -17318,7 +18029,7 @@
         <v>10</v>
       </c>
       <c r="B252" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C252">
         <v>2035</v>
@@ -17359,7 +18070,7 @@
         <v>10</v>
       </c>
       <c r="B253" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C253">
         <v>2040</v>
@@ -17400,7 +18111,7 @@
         <v>10</v>
       </c>
       <c r="B254" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C254">
         <v>2045</v>
@@ -17441,7 +18152,7 @@
         <v>10</v>
       </c>
       <c r="B255" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C255">
         <v>2050</v>
@@ -17482,7 +18193,7 @@
         <v>1</v>
       </c>
       <c r="B256" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C256">
         <v>2020</v>
@@ -17523,7 +18234,7 @@
         <v>1</v>
       </c>
       <c r="B257" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C257">
         <v>2025</v>
@@ -17561,7 +18272,7 @@
         <v>1</v>
       </c>
       <c r="B258" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C258">
         <v>2030</v>
@@ -17599,7 +18310,7 @@
         <v>1</v>
       </c>
       <c r="B259" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C259">
         <v>2035</v>
@@ -17637,7 +18348,7 @@
         <v>1</v>
       </c>
       <c r="B260" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C260">
         <v>2040</v>
@@ -17675,7 +18386,7 @@
         <v>1</v>
       </c>
       <c r="B261" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C261">
         <v>2045</v>
@@ -17713,7 +18424,7 @@
         <v>1</v>
       </c>
       <c r="B262" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C262">
         <v>2050</v>
@@ -17751,7 +18462,7 @@
         <v>3</v>
       </c>
       <c r="B263" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C263">
         <v>2020</v>
@@ -17792,7 +18503,7 @@
         <v>3</v>
       </c>
       <c r="B264" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C264">
         <v>2025</v>
@@ -17830,7 +18541,7 @@
         <v>3</v>
       </c>
       <c r="B265" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C265">
         <v>2030</v>
@@ -17868,7 +18579,7 @@
         <v>3</v>
       </c>
       <c r="B266" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C266">
         <v>2035</v>
@@ -17906,7 +18617,7 @@
         <v>3</v>
       </c>
       <c r="B267" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C267">
         <v>2040</v>
@@ -17944,7 +18655,7 @@
         <v>3</v>
       </c>
       <c r="B268" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C268">
         <v>2045</v>
@@ -17982,7 +18693,7 @@
         <v>3</v>
       </c>
       <c r="B269" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C269">
         <v>2050</v>
@@ -18020,7 +18731,7 @@
         <v>6</v>
       </c>
       <c r="B270" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C270">
         <v>2020</v>
@@ -18061,7 +18772,7 @@
         <v>6</v>
       </c>
       <c r="B271" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C271">
         <v>2025</v>
@@ -18099,7 +18810,7 @@
         <v>6</v>
       </c>
       <c r="B272" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C272">
         <v>2030</v>
@@ -18137,7 +18848,7 @@
         <v>6</v>
       </c>
       <c r="B273" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C273">
         <v>2035</v>
@@ -18175,7 +18886,7 @@
         <v>6</v>
       </c>
       <c r="B274" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C274">
         <v>2040</v>
@@ -18213,7 +18924,7 @@
         <v>6</v>
       </c>
       <c r="B275" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C275">
         <v>2045</v>
@@ -18251,7 +18962,7 @@
         <v>6</v>
       </c>
       <c r="B276" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C276">
         <v>2050</v>
@@ -18289,7 +19000,7 @@
         <v>8</v>
       </c>
       <c r="B277" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C277">
         <v>2020</v>
@@ -18330,7 +19041,7 @@
         <v>8</v>
       </c>
       <c r="B278" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C278">
         <v>2025</v>
@@ -18371,7 +19082,7 @@
         <v>8</v>
       </c>
       <c r="B279" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C279">
         <v>2030</v>
@@ -18412,7 +19123,7 @@
         <v>8</v>
       </c>
       <c r="B280" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C280">
         <v>2035</v>
@@ -18453,7 +19164,7 @@
         <v>8</v>
       </c>
       <c r="B281" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C281">
         <v>2040</v>
@@ -18494,7 +19205,7 @@
         <v>8</v>
       </c>
       <c r="B282" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C282">
         <v>2045</v>
@@ -18535,7 +19246,7 @@
         <v>8</v>
       </c>
       <c r="B283" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C283">
         <v>2050</v>
@@ -18576,7 +19287,7 @@
         <v>10</v>
       </c>
       <c r="B284" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C284">
         <v>2020</v>
@@ -18617,7 +19328,7 @@
         <v>10</v>
       </c>
       <c r="B285" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C285">
         <v>2025</v>
@@ -18658,7 +19369,7 @@
         <v>10</v>
       </c>
       <c r="B286" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C286">
         <v>2030</v>
@@ -18699,7 +19410,7 @@
         <v>10</v>
       </c>
       <c r="B287" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C287">
         <v>2035</v>
@@ -18740,7 +19451,7 @@
         <v>10</v>
       </c>
       <c r="B288" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C288">
         <v>2040</v>
@@ -18781,7 +19492,7 @@
         <v>10</v>
       </c>
       <c r="B289" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C289">
         <v>2045</v>
@@ -18822,7 +19533,7 @@
         <v>10</v>
       </c>
       <c r="B290" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C290">
         <v>2050</v>
@@ -18863,7 +19574,7 @@
         <v>1</v>
       </c>
       <c r="B291" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C291">
         <v>2020</v>
@@ -18904,7 +19615,7 @@
         <v>1</v>
       </c>
       <c r="B292" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C292">
         <v>2025</v>
@@ -18945,7 +19656,7 @@
         <v>1</v>
       </c>
       <c r="B293" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C293">
         <v>2030</v>
@@ -18986,7 +19697,7 @@
         <v>1</v>
       </c>
       <c r="B294" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C294">
         <v>2035</v>
@@ -19027,7 +19738,7 @@
         <v>1</v>
       </c>
       <c r="B295" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C295">
         <v>2040</v>
@@ -19068,7 +19779,7 @@
         <v>1</v>
       </c>
       <c r="B296" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C296">
         <v>2045</v>
@@ -19109,7 +19820,7 @@
         <v>1</v>
       </c>
       <c r="B297" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C297">
         <v>2050</v>
@@ -19150,7 +19861,7 @@
         <v>3</v>
       </c>
       <c r="B298" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C298">
         <v>2020</v>
@@ -19191,7 +19902,7 @@
         <v>3</v>
       </c>
       <c r="B299" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C299">
         <v>2025</v>
@@ -19232,7 +19943,7 @@
         <v>3</v>
       </c>
       <c r="B300" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C300">
         <v>2030</v>
@@ -19273,7 +19984,7 @@
         <v>3</v>
       </c>
       <c r="B301" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C301">
         <v>2035</v>
@@ -19314,7 +20025,7 @@
         <v>3</v>
       </c>
       <c r="B302" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C302">
         <v>2040</v>
@@ -19355,7 +20066,7 @@
         <v>3</v>
       </c>
       <c r="B303" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C303">
         <v>2045</v>
@@ -19396,7 +20107,7 @@
         <v>3</v>
       </c>
       <c r="B304" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C304">
         <v>2050</v>
@@ -19437,7 +20148,7 @@
         <v>6</v>
       </c>
       <c r="B305" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C305">
         <v>2020</v>
@@ -19478,7 +20189,7 @@
         <v>6</v>
       </c>
       <c r="B306" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C306">
         <v>2025</v>
@@ -19519,7 +20230,7 @@
         <v>6</v>
       </c>
       <c r="B307" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C307">
         <v>2030</v>
@@ -19560,7 +20271,7 @@
         <v>6</v>
       </c>
       <c r="B308" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C308">
         <v>2035</v>
@@ -19601,7 +20312,7 @@
         <v>6</v>
       </c>
       <c r="B309" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C309">
         <v>2040</v>
@@ -19642,7 +20353,7 @@
         <v>6</v>
       </c>
       <c r="B310" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C310">
         <v>2045</v>
@@ -19683,7 +20394,7 @@
         <v>6</v>
       </c>
       <c r="B311" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C311">
         <v>2050</v>
@@ -19724,7 +20435,7 @@
         <v>8</v>
       </c>
       <c r="B312" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C312">
         <v>2020</v>
@@ -19765,7 +20476,7 @@
         <v>8</v>
       </c>
       <c r="B313" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C313">
         <v>2025</v>
@@ -19806,7 +20517,7 @@
         <v>8</v>
       </c>
       <c r="B314" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C314">
         <v>2030</v>
@@ -19847,7 +20558,7 @@
         <v>8</v>
       </c>
       <c r="B315" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C315">
         <v>2035</v>
@@ -19888,7 +20599,7 @@
         <v>8</v>
       </c>
       <c r="B316" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C316">
         <v>2040</v>
@@ -19929,7 +20640,7 @@
         <v>8</v>
       </c>
       <c r="B317" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C317">
         <v>2045</v>
@@ -19970,7 +20681,7 @@
         <v>8</v>
       </c>
       <c r="B318" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C318">
         <v>2050</v>
@@ -20011,7 +20722,7 @@
         <v>10</v>
       </c>
       <c r="B319" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C319">
         <v>2020</v>
@@ -20052,7 +20763,7 @@
         <v>10</v>
       </c>
       <c r="B320" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C320">
         <v>2025</v>
@@ -20093,7 +20804,7 @@
         <v>10</v>
       </c>
       <c r="B321" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C321">
         <v>2030</v>
@@ -20134,7 +20845,7 @@
         <v>10</v>
       </c>
       <c r="B322" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C322">
         <v>2035</v>
@@ -20175,7 +20886,7 @@
         <v>10</v>
       </c>
       <c r="B323" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C323">
         <v>2040</v>
@@ -20216,7 +20927,7 @@
         <v>10</v>
       </c>
       <c r="B324" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C324">
         <v>2045</v>
@@ -20257,7 +20968,7 @@
         <v>10</v>
       </c>
       <c r="B325" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C325">
         <v>2050</v>
@@ -20298,7 +21009,7 @@
         <v>1</v>
       </c>
       <c r="B326" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C326">
         <v>2020</v>
@@ -20339,7 +21050,7 @@
         <v>1</v>
       </c>
       <c r="B327" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C327">
         <v>2025</v>
@@ -20380,7 +21091,7 @@
         <v>1</v>
       </c>
       <c r="B328" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C328">
         <v>2030</v>
@@ -20421,7 +21132,7 @@
         <v>1</v>
       </c>
       <c r="B329" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C329">
         <v>2035</v>
@@ -20462,7 +21173,7 @@
         <v>1</v>
       </c>
       <c r="B330" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C330">
         <v>2040</v>
@@ -20503,7 +21214,7 @@
         <v>1</v>
       </c>
       <c r="B331" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C331">
         <v>2045</v>
@@ -20544,7 +21255,7 @@
         <v>1</v>
       </c>
       <c r="B332" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C332">
         <v>2050</v>
@@ -20585,7 +21296,7 @@
         <v>3</v>
       </c>
       <c r="B333" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C333">
         <v>2020</v>
@@ -20626,7 +21337,7 @@
         <v>3</v>
       </c>
       <c r="B334" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C334">
         <v>2025</v>
@@ -20667,7 +21378,7 @@
         <v>3</v>
       </c>
       <c r="B335" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C335">
         <v>2030</v>
@@ -20708,7 +21419,7 @@
         <v>3</v>
       </c>
       <c r="B336" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C336">
         <v>2035</v>
@@ -20749,7 +21460,7 @@
         <v>3</v>
       </c>
       <c r="B337" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C337">
         <v>2040</v>
@@ -20790,7 +21501,7 @@
         <v>3</v>
       </c>
       <c r="B338" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C338">
         <v>2045</v>
@@ -20831,7 +21542,7 @@
         <v>3</v>
       </c>
       <c r="B339" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C339">
         <v>2050</v>
@@ -20872,7 +21583,7 @@
         <v>6</v>
       </c>
       <c r="B340" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C340">
         <v>2020</v>
@@ -20913,7 +21624,7 @@
         <v>6</v>
       </c>
       <c r="B341" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C341">
         <v>2025</v>
@@ -20954,7 +21665,7 @@
         <v>6</v>
       </c>
       <c r="B342" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C342">
         <v>2030</v>
@@ -20995,7 +21706,7 @@
         <v>6</v>
       </c>
       <c r="B343" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C343">
         <v>2035</v>
@@ -21036,7 +21747,7 @@
         <v>6</v>
       </c>
       <c r="B344" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C344">
         <v>2040</v>
@@ -21077,7 +21788,7 @@
         <v>6</v>
       </c>
       <c r="B345" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C345">
         <v>2045</v>
@@ -21118,7 +21829,7 @@
         <v>6</v>
       </c>
       <c r="B346" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C346">
         <v>2050</v>
@@ -21159,7 +21870,7 @@
         <v>8</v>
       </c>
       <c r="B347" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C347">
         <v>2020</v>
@@ -21200,7 +21911,7 @@
         <v>8</v>
       </c>
       <c r="B348" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C348">
         <v>2025</v>
@@ -21241,7 +21952,7 @@
         <v>8</v>
       </c>
       <c r="B349" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C349">
         <v>2030</v>
@@ -21282,7 +21993,7 @@
         <v>8</v>
       </c>
       <c r="B350" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C350">
         <v>2035</v>
@@ -21323,7 +22034,7 @@
         <v>8</v>
       </c>
       <c r="B351" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C351">
         <v>2040</v>
@@ -21364,7 +22075,7 @@
         <v>8</v>
       </c>
       <c r="B352" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C352">
         <v>2045</v>
@@ -21405,7 +22116,7 @@
         <v>8</v>
       </c>
       <c r="B353" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C353">
         <v>2050</v>
@@ -21446,7 +22157,7 @@
         <v>10</v>
       </c>
       <c r="B354" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C354">
         <v>2020</v>
@@ -21487,7 +22198,7 @@
         <v>10</v>
       </c>
       <c r="B355" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C355">
         <v>2025</v>
@@ -21528,7 +22239,7 @@
         <v>10</v>
       </c>
       <c r="B356" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C356">
         <v>2030</v>
@@ -21569,7 +22280,7 @@
         <v>10</v>
       </c>
       <c r="B357" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C357">
         <v>2035</v>
@@ -21610,7 +22321,7 @@
         <v>10</v>
       </c>
       <c r="B358" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C358">
         <v>2040</v>
@@ -21651,7 +22362,7 @@
         <v>10</v>
       </c>
       <c r="B359" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C359">
         <v>2045</v>
@@ -21692,7 +22403,7 @@
         <v>10</v>
       </c>
       <c r="B360" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C360">
         <v>2050</v>
@@ -21732,4 +22443,141 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0ACD839-B60C-4CDA-B632-BF39C559A5EF}">
+  <dimension ref="B10:M24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="I17" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C18" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="3:13" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H21" s="13" t="e">
+        <f>IF(H23=H24,"Not Required!","~UC_T: LO")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C22" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" t="str">
+        <f>G23</f>
+        <v>AuxStoIN</v>
+      </c>
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" t="e">
+        <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I23">
+        <f>1+I24</f>
+        <v>0.25</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="M23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" t="str">
+        <f>G24</f>
+        <v>AuxStoIN</v>
+      </c>
+      <c r="F24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" t="e">
+        <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I24">
+        <f>-$I$17</f>
+        <v>-0.75</v>
+      </c>
+      <c r="M24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>